--- a/output/17stycznia/2024/sheets/year_2024.xlsx
+++ b/output/17stycznia/2024/sheets/year_2024.xlsx
@@ -481,55 +481,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>43.28709677419355</v>
+        <v>47.75591321273239</v>
       </c>
       <c r="C2" t="n">
-        <v>45.71290322580645</v>
+        <v>46.96123256144796</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>44.65172413793102</v>
+        <v>49.24021222259866</v>
       </c>
       <c r="C3" t="n">
-        <v>45.94827586206897</v>
+        <v>48.45415910843478</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>43.94838709677418</v>
+        <v>46.54325266096967</v>
       </c>
       <c r="C4" t="n">
-        <v>46.46451612903226</v>
+        <v>47.7859459547951</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>43.83</v>
+        <v>47.78780436274343</v>
       </c>
       <c r="C5" t="n">
-        <v>46.89666666666667</v>
+        <v>49.7067849021669</v>
       </c>
     </row>
   </sheetData>
